--- a/src/main/resources/2024.03.xlsx
+++ b/src/main/resources/2024.03.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Taxi &amp; Transportkurier Ahmet Koca</t>
   </si>
@@ -113,61 +113,25 @@
     <t>Hinfahrt CHF 48.20 - Rückfahrt CHF 48.20</t>
   </si>
   <si>
-    <t>4.3.2024</t>
-  </si>
-  <si>
-    <t>5.3.2024</t>
-  </si>
-  <si>
-    <t>6.3.2024</t>
-  </si>
-  <si>
-    <t>7.3.2024</t>
-  </si>
-  <si>
-    <t>8.3.2024</t>
+    <t>9.3.2024</t>
+  </si>
+  <si>
+    <t>10.3.2024</t>
   </si>
   <si>
     <t>11.3.2024</t>
   </si>
   <si>
-    <t>12.3.2024</t>
-  </si>
-  <si>
-    <t>13.3.2024</t>
-  </si>
-  <si>
-    <t>14.3.2024</t>
-  </si>
-  <si>
-    <t>15.3.2024</t>
-  </si>
-  <si>
     <t>18.3.2024</t>
   </si>
   <si>
-    <t>19.3.2024</t>
-  </si>
-  <si>
-    <t>20.3.2024</t>
-  </si>
-  <si>
-    <t>21.3.2024</t>
-  </si>
-  <si>
-    <t>22.3.2024</t>
-  </si>
-  <si>
-    <t>25.3.2024</t>
-  </si>
-  <si>
-    <t>26.3.2024</t>
-  </si>
-  <si>
-    <t>27.3.2024</t>
-  </si>
-  <si>
-    <t>28.3.2024</t>
+    <t>23.3.2024</t>
+  </si>
+  <si>
+    <t>24.3.2024</t>
+  </si>
+  <si>
+    <t>30.3.2024</t>
   </si>
   <si>
     <t>Abrechnungsperiode 1.3.2024 - 31.3.2024</t>
@@ -669,7 +633,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H7" s="4" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I7" s="8"/>
       <c r="K7" s="3"/>
@@ -683,7 +647,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I8" s="8"/>
       <c r="K8" s="3"/>
@@ -777,28 +741,22 @@
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I15" s="8"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="9"/>
       <c r="M15" s="3"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>24</v>
@@ -814,12 +772,18 @@
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="K17" s="3"/>
+      <c r="I17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="L17" s="9"/>
       <c r="M17" s="3"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
+      <c r="O17" s="9" t="n">
+        <v>96.4</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I18" s="8" t="s">
@@ -836,22 +800,16 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I19" s="8"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="9"/>
       <c r="M19" s="3"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O19" s="9"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>24</v>
@@ -864,18 +822,12 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I21" s="8"/>
+      <c r="K21" s="3"/>
       <c r="L21" s="9"/>
       <c r="M21" s="3"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C22" s="13" t="s">
@@ -883,20 +835,14 @@
       </c>
       <c r="D22" s="12" t="n">
         <f>O42</f>
-        <v>2084.15</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>833.65</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="9"/>
       <c r="M22" s="3"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I23" s="8"/>
@@ -907,74 +853,44 @@
       <c r="O23" s="9"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I24" s="8"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="9"/>
       <c r="M24" s="3"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I25" s="8"/>
+      <c r="K25" s="3"/>
       <c r="L25" s="9"/>
       <c r="M25" s="3"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I26" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I26" s="8"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="9"/>
       <c r="M26" s="3"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O26" s="9"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I27" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I27" s="8"/>
+      <c r="K27" s="3"/>
       <c r="L27" s="9"/>
       <c r="M27" s="3"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O27" s="9"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I28" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I28" s="8"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="9"/>
       <c r="M28" s="3"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O28" s="9"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
@@ -988,69 +904,45 @@
       <c r="O29" s="9"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I30" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I30" s="8"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="9"/>
       <c r="M30" s="3"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I31" s="8"/>
+      <c r="K31" s="3"/>
       <c r="L31" s="9"/>
       <c r="M31" s="3"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O31" s="9"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I32" s="8"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="9"/>
       <c r="M32" s="3"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O32" s="9"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="I33" s="8"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="9"/>
       <c r="M33" s="3"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="9" t="n">
-        <v>96.4</v>
-      </c>
+      <c r="O33" s="9"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
@@ -1122,7 +1014,7 @@
         <v>22</v>
       </c>
       <c r="O42" s="11" t="n">
-        <v>2084.15</v>
+        <v>833.65</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
